--- a/wwwroot/contribution_files/metadata_template.xlsx
+++ b/wwwroot/contribution_files/metadata_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dati_backup\astolfo\dario_lavoro\lavori\progetti\europei\EuBI\PIDAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\Tania Orosco\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="metadata template" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="496">
   <si>
     <t>Module</t>
   </si>
@@ -228,12 +228,6 @@
     <t>Country of the Institution holding the dataset</t>
   </si>
   <si>
-    <t>imaging facility</t>
-  </si>
-  <si>
-    <t>Name of the imaging facility</t>
-  </si>
-  <si>
     <t>EubI node</t>
   </si>
   <si>
@@ -666,9 +660,6 @@
     <t>reference to protocol</t>
   </si>
   <si>
-    <t>add reference to protocol</t>
-  </si>
-  <si>
     <t>target organ/tissue</t>
   </si>
   <si>
@@ -816,9 +807,6 @@
     <t xml:space="preserve">  Method </t>
   </si>
   <si>
-    <t>description of the method to sacrificethe animals</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1014,9 +1002,6 @@
     <t>cell injection route</t>
   </si>
   <si>
-    <t>e.g. for cancer cells: subcutaneous, orthotopic</t>
-  </si>
-  <si>
     <t>number of cells</t>
   </si>
   <si>
@@ -1114,9 +1099,6 @@
     <t>housing room</t>
   </si>
   <si>
-    <t>SPF/ not SPF</t>
-  </si>
-  <si>
     <t>Dietary Intervention</t>
   </si>
   <si>
@@ -1228,15 +1210,9 @@
     <t>Size description</t>
   </si>
   <si>
-    <t>Physical size of image volume in x,y,z &amp; units (pull-down)</t>
-  </si>
-  <si>
     <t>Pixel/voxel size description</t>
   </si>
   <si>
-    <t>Physical size of pixels in x, y, z &amp; units (pull-down)</t>
-  </si>
-  <si>
     <t>Image processing methods</t>
   </si>
   <si>
@@ -1246,16 +1222,10 @@
     <t>Image reconstruction algorithm</t>
   </si>
   <si>
-    <t>In case of PET, specify FBP/OSEM. In case of FBP, subparameters include kernel type (e.g., smooth, standard, edge enhancing) and in case of OSEM, subparameters are System Matrix type (e.g., Monte Carlo, fast preview), and number of subsets and iterations. For CT, algorithms shuold include FBP, or iterative (general)</t>
-  </si>
-  <si>
     <t>Image smoothing or filtering algorithm</t>
   </si>
   <si>
     <t>image registration algorithm</t>
-  </si>
-  <si>
-    <t>AI-enhanced algorithm</t>
   </si>
   <si>
     <t>Quality control</t>
@@ -1753,12 +1723,129 @@
   <si>
     <t>For more clarification click here!</t>
   </si>
+  <si>
+    <t>healthy animals or disease model</t>
+  </si>
+  <si>
+    <t>animal condition</t>
+  </si>
+  <si>
+    <t>virus-labelled or modified</t>
+  </si>
+  <si>
+    <t>e.g. AAV or lentivirus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Blood collection time</t>
+  </si>
+  <si>
+    <t>when the blood has been collected during the day (because of the circadian rytm)</t>
+  </si>
+  <si>
+    <t>tissue perfused?</t>
+  </si>
+  <si>
+    <t>perfusion method</t>
+  </si>
+  <si>
+    <t>e.g. ice-cold PBS, saline, PFA , etc..</t>
+  </si>
+  <si>
+    <t>thickness of the tissue section in micrometer</t>
+  </si>
+  <si>
+    <t>specimen thickness</t>
+  </si>
+  <si>
+    <t>cell culture medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medium where cell were cultured (e.g. DMEM, RPMI, DMEM F12, etc..) </t>
+  </si>
+  <si>
+    <t>SPF (specific pathogen free) / germ free / not SPF</t>
+  </si>
+  <si>
+    <t>e.g. only cells or with matrigel</t>
+  </si>
+  <si>
+    <t>cell injection procedure</t>
+  </si>
+  <si>
+    <t>e.g. for cancer cells: subcutaneous, orthotopic, intracardiac, etc..</t>
+  </si>
+  <si>
+    <t>add reference to protocol (PMID or doi)</t>
+  </si>
+  <si>
+    <t>description of the method to sacrifice the animals</t>
+  </si>
+  <si>
+    <t>Tissue description</t>
+  </si>
+  <si>
+    <t>description of the type of tissue (hyperplasia, hemorrage, fibrosis, inflammation, etc.)</t>
+  </si>
+  <si>
+    <t>ORCID code of the PI (https://orcid.org/ )</t>
+  </si>
+  <si>
+    <t>Research Organization Registry (https://ror.org/)</t>
+  </si>
+  <si>
+    <t>Funder ID</t>
+  </si>
+  <si>
+    <t>code of the funding agency (OPEN FOUNDER REGISTRY https://www.crossref.org/services/funder-registry/)</t>
+  </si>
+  <si>
+    <t>PI ORCID</t>
+  </si>
+  <si>
+    <t>Name of the imaging facility where unages have been acquired</t>
+  </si>
+  <si>
+    <t>ROR code owner</t>
+  </si>
+  <si>
+    <t>Imaging facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical size of image volume in x,y,z &amp; units </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physical size of pixels in x, y, z &amp; units </t>
+  </si>
+  <si>
+    <t>registration algorithms</t>
+  </si>
+  <si>
+    <t>plese specify which registration algorithm(s) has/have been used</t>
+  </si>
+  <si>
+    <t>plese specify which AI enhanced algorithm(s) has/have been used</t>
+  </si>
+  <si>
+    <t>AI-enhanced algorithmsù</t>
+  </si>
+  <si>
+    <t>AI-enhanced</t>
+  </si>
+  <si>
+    <t>In case of PET, specify FBP/OSEM/MAP. In case of FBP, subparameters include kernel type (e.g., smooth, standard, edge enhancing), in case of OSEM, subparameters are System Matrix type (e.g., Monte Carlo, fast preview), and number of subsets and iterations; in case of MAP, parameters are iterations, subset and beta (resolution) values. For CT, algorithms shuold include FBP, or iterative (general)</t>
+  </si>
+  <si>
+    <t>image attenuation/correction</t>
+  </si>
+  <si>
+    <t>in case of PET, please specify whether attenuation or scatter correction has been applied to image data or not.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2010,8 +2097,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2154,6 +2267,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFDEEAF6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2375,8 +2494,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="158">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2437,10 +2556,9 @@
     <xf numFmtId="0" fontId="27" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2450,67 +2568,67 @@
     <xf numFmtId="0" fontId="27" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2519,291 +2637,334 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2814,16 +2975,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFBE4D5"/>
       <color rgb="FFECECEC"/>
       <color rgb="FFFEF2CB"/>
+      <color rgb="FFDEEAF6"/>
+      <color rgb="FFD9E2F3"/>
       <color rgb="FFFFF2CC"/>
       <color rgb="FFF8CBAD"/>
       <color rgb="FFC6E0B4"/>
       <color rgb="FFE2EFD9"/>
       <color rgb="FFD8D8D8"/>
-      <color rgb="FFD9E2F3"/>
-      <color rgb="FFFBE4D5"/>
-      <color rgb="FFDEEAF6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2854,7 +3015,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.png"/>
+        <xdr:cNvPr id="2" name="image1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3081,2018 +3248,2178 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D218" sqref="D218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="45.140625" style="63" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.42578125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="92.28515625" style="52" customWidth="1"/>
-    <col min="4" max="4" width="67.7109375" style="63" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="92.28515625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="67.7109375" style="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="64"/>
-      <c r="B2" s="78" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="54" t="s">
+      <c r="C2" s="66"/>
+      <c r="D2" s="53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="54"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="79"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="54"/>
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="116"/>
+      <c r="B5" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="55"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="116"/>
+      <c r="B6" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="55"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="116"/>
+      <c r="B7" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="55"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="117"/>
+      <c r="B8" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="55"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="54"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="119"/>
+      <c r="B10" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="119"/>
+      <c r="B11" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="55"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="119"/>
+      <c r="B12" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="55"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="119"/>
+      <c r="B13" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="55"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="119"/>
+      <c r="B14" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="55"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="119"/>
+      <c r="B15" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="55"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="119"/>
+      <c r="B16" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="55"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="119"/>
+      <c r="B17" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="55"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="48"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="56"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="120" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="56"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="121"/>
+      <c r="B20" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="55"/>
+    </row>
+    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="55"/>
+    </row>
+    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="121"/>
+      <c r="B22" s="81" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="55"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="121"/>
+      <c r="B23" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="55"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="121"/>
+      <c r="B24" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="55"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="123"/>
+      <c r="B25" s="81" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="55"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="120" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="48"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="56"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="124"/>
+      <c r="B27" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="55"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="124"/>
+      <c r="B28" s="81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="55"/>
+    </row>
+    <row r="29" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="124"/>
+      <c r="B29" s="143" t="s">
+        <v>484</v>
+      </c>
+      <c r="C29" s="144" t="s">
+        <v>479</v>
+      </c>
+      <c r="D29" s="146"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="124"/>
+      <c r="B30" s="81" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="55"/>
+    </row>
+    <row r="31" spans="1:4" s="149" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="145"/>
+      <c r="B31" s="143" t="s">
+        <v>482</v>
+      </c>
+      <c r="C31" s="144" t="s">
+        <v>478</v>
+      </c>
+      <c r="D31" s="148"/>
+    </row>
+    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="124"/>
+      <c r="B32" s="82" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="55"/>
+    </row>
+    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="124"/>
+      <c r="B33" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="55"/>
+    </row>
+    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="124"/>
+      <c r="B34" s="81" t="s">
+        <v>485</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="D34" s="55"/>
+    </row>
+    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="124"/>
+      <c r="B35" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="55"/>
+    </row>
+    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="124"/>
+      <c r="B36" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="55"/>
+    </row>
+    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="124"/>
+      <c r="B37" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="55"/>
+    </row>
+    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="124"/>
+      <c r="B38" s="84" t="s">
+        <v>332</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="D38" s="55"/>
+    </row>
+    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="124"/>
+      <c r="B39" s="82" t="s">
+        <v>334</v>
+      </c>
+      <c r="C39" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="D39" s="55"/>
+    </row>
+    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="124"/>
+      <c r="B40" s="82" t="s">
+        <v>333</v>
+      </c>
+      <c r="C40" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="D40" s="55"/>
+    </row>
+    <row r="41" spans="1:4" s="147" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="124"/>
+      <c r="B41" s="82" t="s">
+        <v>480</v>
+      </c>
+      <c r="C41" s="27" t="s">
+        <v>481</v>
+      </c>
+      <c r="D41" s="146"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="124"/>
+      <c r="B42" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="55"/>
+    </row>
+    <row r="43" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="124"/>
+      <c r="B43" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" s="55"/>
+    </row>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="124"/>
+      <c r="B44" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D44" s="55"/>
+    </row>
+    <row r="45" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="124"/>
+      <c r="B45" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="43" t="s">
+        <v>452</v>
+      </c>
+      <c r="D45" s="55"/>
+    </row>
+    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="124"/>
+      <c r="B46" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="44" t="s">
+        <v>453</v>
+      </c>
+      <c r="D46" s="55"/>
+    </row>
+    <row r="47" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="124"/>
+      <c r="B47" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>454</v>
+      </c>
+      <c r="D47" s="55"/>
+    </row>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="125"/>
+      <c r="B48" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="55"/>
+    </row>
+    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="126" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="90"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="57"/>
+    </row>
+    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="126" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="57"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="127"/>
+      <c r="B51" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="55"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="127"/>
+      <c r="B52" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="D52" s="55"/>
+    </row>
+    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="127"/>
+      <c r="B53" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="55"/>
+    </row>
+    <row r="54" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="127"/>
+      <c r="B54" s="91" t="s">
+        <v>458</v>
+      </c>
+      <c r="C54" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="D54" s="146"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="127"/>
+      <c r="B55" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="55"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="127"/>
+      <c r="B56" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="55"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="127"/>
+      <c r="B57" s="92" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="69"/>
+      <c r="D57" s="57"/>
+    </row>
+    <row r="58" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="127"/>
+      <c r="B58" s="91" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" s="55"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="64"/>
+      <c r="B59" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="55"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="127"/>
+      <c r="B60" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C60" s="70"/>
+      <c r="D60" s="57"/>
+    </row>
+    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="127"/>
+      <c r="B61" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" s="55"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="64"/>
+      <c r="B62" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D62" s="55"/>
+    </row>
+    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="127"/>
+      <c r="B63" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C63" s="69"/>
+      <c r="D63" s="57"/>
+    </row>
+    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="64"/>
+      <c r="B64" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="55"/>
+    </row>
+    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="127"/>
+      <c r="B65" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="69"/>
+      <c r="D65" s="57"/>
+    </row>
+    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="127"/>
+      <c r="B66" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="55"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="127"/>
+      <c r="B67" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D67" s="55"/>
+    </row>
+    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="64"/>
+      <c r="B68" s="93" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D68" s="55"/>
+    </row>
+    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="127"/>
+      <c r="B69" s="92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" s="69"/>
+      <c r="D69" s="57"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A70" s="64"/>
+      <c r="B70" s="93" t="s">
+        <v>102</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="55"/>
+    </row>
+    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A71" s="127"/>
+      <c r="B71" s="92" t="s">
+        <v>104</v>
+      </c>
+      <c r="C71" s="69"/>
+      <c r="D71" s="57"/>
+    </row>
+    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A72" s="64"/>
+      <c r="B72" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D72" s="55"/>
+    </row>
+    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="128" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="49"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="57"/>
+    </row>
+    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A74" s="127"/>
+      <c r="B74" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="55"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A75" s="127"/>
+      <c r="B75" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="55"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A76" s="127"/>
+      <c r="B76" s="91" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="55"/>
+    </row>
+    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A77" s="127"/>
+      <c r="B77" s="91" t="s">
+        <v>114</v>
+      </c>
+      <c r="C77" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="55"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A78" s="127"/>
+      <c r="B78" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="D78" s="55"/>
+    </row>
+    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A79" s="127"/>
+      <c r="B79" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="D79" s="55"/>
+    </row>
+    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A80" s="127"/>
+      <c r="B80" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="55"/>
+    </row>
+    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="127"/>
+      <c r="B81" s="91" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="55"/>
+    </row>
+    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="127"/>
+      <c r="B82" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" s="32" t="s">
+        <v>125</v>
+      </c>
+      <c r="D82" s="55"/>
+    </row>
+    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A83" s="127"/>
+      <c r="B83" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="55"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A84" s="127"/>
+      <c r="B84" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D84" s="55"/>
+    </row>
+    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A85" s="127"/>
+      <c r="B85" s="91" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="D85" s="55"/>
+    </row>
+    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A86" s="127"/>
+      <c r="B86" s="91" t="s">
+        <v>132</v>
+      </c>
+      <c r="C86" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="55"/>
+    </row>
+    <row r="87" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A87" s="127"/>
+      <c r="B87" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="55"/>
+    </row>
+    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A88" s="127"/>
+      <c r="B88" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="C88" s="69"/>
+      <c r="D88" s="55"/>
+    </row>
+    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A89" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="96"/>
+      <c r="C89" s="71"/>
+      <c r="D89" s="58"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A90" s="129" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90" s="96"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="58"/>
+    </row>
+    <row r="91" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A91" s="130"/>
+      <c r="B91" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="55"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A92" s="130"/>
+      <c r="B92" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" s="55"/>
+    </row>
+    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A93" s="130"/>
+      <c r="B93" s="99" t="s">
+        <v>142</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="55"/>
+    </row>
+    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A94" s="130"/>
+      <c r="B94" s="99" t="s">
+        <v>144</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D94" s="55"/>
+    </row>
+    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A95" s="130"/>
+      <c r="B95" s="98" t="s">
+        <v>146</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D95" s="55"/>
+    </row>
+    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A96" s="130"/>
+      <c r="B96" s="99" t="s">
+        <v>148</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="D96" s="55"/>
+    </row>
+    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A97" s="130"/>
+      <c r="B97" s="99" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="D97" s="55"/>
+    </row>
+    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A98" s="130"/>
+      <c r="B98" s="98" t="s">
+        <v>152</v>
+      </c>
+      <c r="C98" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D98" s="55"/>
+    </row>
+    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A99" s="130"/>
+      <c r="B99" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C99" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" s="55"/>
+    </row>
+    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A100" s="130"/>
+      <c r="B100" s="98" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="D100" s="55"/>
+    </row>
+    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A101" s="130"/>
+      <c r="B101" s="99" t="s">
+        <v>158</v>
+      </c>
+      <c r="C101" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="D101" s="55"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A102" s="130"/>
+      <c r="B102" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="C102" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="55"/>
+    </row>
+    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A103" s="130"/>
+      <c r="B103" s="99" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="D103" s="55"/>
+    </row>
+    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A104" s="130"/>
+      <c r="B104" s="99" t="s">
+        <v>163</v>
+      </c>
+      <c r="C104" s="35" t="s">
+        <v>164</v>
+      </c>
+      <c r="D104" s="55"/>
+    </row>
+    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A105" s="130"/>
+      <c r="B105" s="99" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="D105" s="55"/>
+    </row>
+    <row r="106" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A106" s="130"/>
+      <c r="B106" s="99" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="116" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="55"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="116" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="117"/>
-      <c r="B5" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="56"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="117"/>
-      <c r="B6" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="56"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="117"/>
-      <c r="B7" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="56"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="118"/>
-      <c r="B8" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" s="56"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="119" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="55"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="120"/>
-      <c r="B10" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="26" t="s">
+      <c r="C106" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="D106" s="146"/>
+    </row>
+    <row r="107" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A107" s="130"/>
+      <c r="B107" s="100" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="56"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="120"/>
-      <c r="B11" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="56"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="120"/>
-      <c r="B12" s="81" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="56"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="120"/>
-      <c r="B13" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="56"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="120"/>
-      <c r="B14" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="56"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="120"/>
-      <c r="B15" s="81" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="56"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="120"/>
-      <c r="B16" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="56"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="120"/>
-      <c r="B17" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="26" t="s">
+      <c r="D107" s="55"/>
+    </row>
+    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A108" s="130"/>
+      <c r="B108" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="C108" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D108" s="55"/>
+    </row>
+    <row r="109" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A109" s="130"/>
+      <c r="B109" s="99" t="s">
+        <v>170</v>
+      </c>
+      <c r="C109" s="72" t="s">
+        <v>474</v>
+      </c>
+      <c r="D109" s="146"/>
+    </row>
+    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A110" s="130"/>
+      <c r="B110" s="98" t="s">
+        <v>171</v>
+      </c>
+      <c r="C110" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D110" s="55"/>
+    </row>
+    <row r="111" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="130"/>
+      <c r="B111" s="100" t="s">
+        <v>173</v>
+      </c>
+      <c r="C111" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="56"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="57"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="121" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="57"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="122"/>
-      <c r="B20" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="27" t="s">
+      <c r="D111" s="55"/>
+    </row>
+    <row r="112" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A112" s="130"/>
+      <c r="B112" s="99" t="s">
+        <v>174</v>
+      </c>
+      <c r="C112" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D112" s="55"/>
+    </row>
+    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A113" s="130"/>
+      <c r="B113" s="98" t="s">
+        <v>176</v>
+      </c>
+      <c r="C113" s="71"/>
+      <c r="D113" s="55"/>
+    </row>
+    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A114" s="130"/>
+      <c r="B114" s="98" t="s">
+        <v>177</v>
+      </c>
+      <c r="C114" s="71"/>
+      <c r="D114" s="55"/>
+    </row>
+    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A115" s="130"/>
+      <c r="B115" s="98" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" s="71"/>
+      <c r="D115" s="55"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A116" s="130"/>
+      <c r="B116" s="98" t="s">
+        <v>179</v>
+      </c>
+      <c r="C116" s="71"/>
+      <c r="D116" s="55"/>
+    </row>
+    <row r="117" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A117" s="130"/>
+      <c r="B117" s="100" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="56"/>
-    </row>
-    <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="123" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="82" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="56"/>
-    </row>
-    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="122"/>
-      <c r="B22" s="82" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="56"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="122"/>
-      <c r="B23" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="28" t="s">
+      <c r="D117" s="55"/>
+    </row>
+    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A118" s="130"/>
+      <c r="B118" s="98" t="s">
+        <v>181</v>
+      </c>
+      <c r="C118" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D118" s="55"/>
+    </row>
+    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A119" s="130"/>
+      <c r="B119" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119" s="55"/>
+    </row>
+    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A120" s="130"/>
+      <c r="B120" s="99" t="s">
+        <v>185</v>
+      </c>
+      <c r="C120" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="D120" s="55"/>
+    </row>
+    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A121" s="130"/>
+      <c r="B121" s="101" t="s">
+        <v>187</v>
+      </c>
+      <c r="C121" s="140" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="56"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="122"/>
-      <c r="B24" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="56"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="124"/>
-      <c r="B25" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="56"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="121" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="57"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="125"/>
-      <c r="B27" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="56"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="125"/>
-      <c r="B28" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="56"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="125"/>
-      <c r="B29" s="82" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="56"/>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="125"/>
-      <c r="B30" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="56"/>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="125"/>
-      <c r="B31" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="56"/>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="125"/>
-      <c r="B32" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="56"/>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="125"/>
-      <c r="B33" s="83" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" s="56"/>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="125"/>
-      <c r="B34" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="56"/>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="125"/>
-      <c r="B35" s="83" t="s">
-        <v>60</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="56"/>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="125"/>
-      <c r="B36" s="85" t="s">
-        <v>342</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="D36" s="56"/>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="125"/>
-      <c r="B37" s="83" t="s">
-        <v>344</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>346</v>
-      </c>
-      <c r="D37" s="56"/>
-    </row>
-    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="125"/>
-      <c r="B38" s="83" t="s">
-        <v>343</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>347</v>
-      </c>
-      <c r="D38" s="56"/>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="125"/>
-      <c r="B39" s="82" t="s">
-        <v>62</v>
-      </c>
-      <c r="C39" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="56"/>
-    </row>
-    <row r="40" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="125"/>
-      <c r="B40" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="56"/>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="125"/>
-      <c r="B41" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="56"/>
-    </row>
-    <row r="42" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="125"/>
-      <c r="B42" s="87" t="s">
-        <v>68</v>
-      </c>
-      <c r="C42" s="44" t="s">
-        <v>462</v>
-      </c>
-      <c r="D42" s="56"/>
-    </row>
-    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A43" s="125"/>
-      <c r="B43" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="45" t="s">
+      <c r="D121" s="55"/>
+    </row>
+    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A122" s="130"/>
+      <c r="B122" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="C122" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D122" s="55"/>
+    </row>
+    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A123" s="130"/>
+      <c r="B123" s="99" t="s">
+        <v>190</v>
+      </c>
+      <c r="C123" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D123" s="55"/>
+    </row>
+    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A124" s="130"/>
+      <c r="B124" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D124" s="55"/>
+    </row>
+    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A125" s="130"/>
+      <c r="B125" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C125" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="55"/>
+    </row>
+    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A126" s="130"/>
+      <c r="B126" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="C126" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D126" s="55"/>
+    </row>
+    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A127" s="130"/>
+      <c r="B127" s="96"/>
+      <c r="C127" s="71"/>
+      <c r="D127" s="58"/>
+    </row>
+    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A128" s="130"/>
+      <c r="B128" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="C128" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" s="55"/>
+    </row>
+    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A129" s="130"/>
+      <c r="B129" s="98" t="s">
+        <v>199</v>
+      </c>
+      <c r="C129" s="33" t="s">
+        <v>475</v>
+      </c>
+      <c r="D129" s="55"/>
+    </row>
+    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A130" s="130"/>
+      <c r="B130" s="96"/>
+      <c r="C130" s="71"/>
+      <c r="D130" s="58"/>
+    </row>
+    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A131" s="130"/>
+      <c r="B131" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" s="55"/>
+    </row>
+    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A132" s="130"/>
+      <c r="B132" s="98" t="s">
+        <v>201</v>
+      </c>
+      <c r="C132" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D132" s="55"/>
+    </row>
+    <row r="133" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="130"/>
+      <c r="B133" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C133" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D133" s="55"/>
+    </row>
+    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A134" s="130"/>
+      <c r="B134" s="98" t="s">
+        <v>476</v>
+      </c>
+      <c r="C134" s="33" t="s">
+        <v>477</v>
+      </c>
+      <c r="D134" s="55"/>
+    </row>
+    <row r="135" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A135" s="130"/>
+      <c r="B135" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="D43" s="56"/>
-    </row>
-    <row r="44" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="125"/>
-      <c r="B44" s="89" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" s="46" t="s">
+      <c r="C135" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" s="146"/>
+    </row>
+    <row r="136" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A136" s="130"/>
+      <c r="B136" s="154" t="s">
         <v>464</v>
       </c>
-      <c r="D44" s="56"/>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="126"/>
-      <c r="B45" s="90" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D45" s="56"/>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="127" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="58"/>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="127" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="50"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="58"/>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="128"/>
-      <c r="B48" s="92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="56"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="128"/>
-      <c r="B49" s="92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="56"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="128"/>
-      <c r="B50" s="92" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="D50" s="56"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="128"/>
-      <c r="B51" s="92" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D51" s="56"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="128"/>
-      <c r="B52" s="92" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" s="56"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="128"/>
-      <c r="B53" s="93" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53" s="70"/>
-      <c r="D53" s="58"/>
-    </row>
-    <row r="54" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="128"/>
-      <c r="B54" s="92" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D54" s="56"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="65"/>
-      <c r="B55" s="94" t="s">
-        <v>88</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" s="56"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="128"/>
-      <c r="B56" s="95" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" s="71"/>
-      <c r="D56" s="58"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="128"/>
-      <c r="B57" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="56"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="65"/>
-      <c r="B58" s="96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>94</v>
-      </c>
-      <c r="D58" s="56"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="128"/>
-      <c r="B59" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="70"/>
-      <c r="D59" s="58"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="65"/>
-      <c r="B60" s="92" t="s">
-        <v>96</v>
-      </c>
-      <c r="C60" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="56"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="128"/>
-      <c r="B61" s="93" t="s">
-        <v>98</v>
-      </c>
-      <c r="C61" s="70"/>
-      <c r="D61" s="58"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="128"/>
-      <c r="B62" s="92" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="32" t="s">
+      <c r="C136" s="155" t="s">
+        <v>465</v>
+      </c>
+      <c r="D136" s="146"/>
+    </row>
+    <row r="137" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A137" s="130"/>
+      <c r="B137" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="55"/>
+    </row>
+    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A138" s="130"/>
+      <c r="B138" s="99" t="s">
+        <v>207</v>
+      </c>
+      <c r="C138" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="55"/>
+    </row>
+    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A139" s="130"/>
+      <c r="B139" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="C139" s="71"/>
+      <c r="D139" s="55"/>
+    </row>
+    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A140" s="130"/>
+      <c r="B140" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="C140" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D140" s="55"/>
+    </row>
+    <row r="141" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A141" s="130"/>
+      <c r="B141" s="99" t="s">
+        <v>467</v>
+      </c>
+      <c r="C141" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="D141" s="146"/>
+    </row>
+    <row r="142" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="130"/>
+      <c r="B142" s="99"/>
+      <c r="C142" s="34"/>
+      <c r="D142" s="55"/>
+    </row>
+    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A143" s="130"/>
+      <c r="B143" s="100" t="s">
+        <v>212</v>
+      </c>
+      <c r="C143" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="D62" s="56"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="128"/>
-      <c r="B63" s="94" t="s">
-        <v>100</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D63" s="56"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="65"/>
-      <c r="B64" s="94" t="s">
-        <v>102</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="D64" s="56"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="128"/>
-      <c r="B65" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="58"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="65"/>
-      <c r="B66" s="94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D66" s="56"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="128"/>
-      <c r="B67" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="58"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="65"/>
-      <c r="B68" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D68" s="56"/>
-    </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="129" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="70"/>
-      <c r="D69" s="58"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="128"/>
-      <c r="B70" s="92" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" s="56"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A71" s="128"/>
-      <c r="B71" s="92" t="s">
-        <v>112</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="D71" s="56"/>
-    </row>
-    <row r="72" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="128"/>
-      <c r="B72" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" s="56"/>
-    </row>
-    <row r="73" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="128"/>
-      <c r="B73" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="C73" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="D73" s="56"/>
-    </row>
-    <row r="74" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A74" s="128"/>
-      <c r="B74" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" s="56"/>
-    </row>
-    <row r="75" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A75" s="128"/>
-      <c r="B75" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="D75" s="56"/>
-    </row>
-    <row r="76" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="128"/>
-      <c r="B76" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D76" s="56"/>
-    </row>
-    <row r="77" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="128"/>
-      <c r="B77" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="D77" s="56"/>
-    </row>
-    <row r="78" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="128"/>
-      <c r="B78" s="94" t="s">
-        <v>126</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D78" s="56"/>
-    </row>
-    <row r="79" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="128"/>
-      <c r="B79" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="D79" s="56"/>
-    </row>
-    <row r="80" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A80" s="128"/>
-      <c r="B80" s="92" t="s">
-        <v>130</v>
-      </c>
-      <c r="C80" s="32" t="s">
-        <v>131</v>
-      </c>
-      <c r="D80" s="56"/>
-    </row>
-    <row r="81" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="128"/>
-      <c r="B81" s="92" t="s">
-        <v>132</v>
-      </c>
-      <c r="C81" s="32" t="s">
+      <c r="D143" s="55"/>
+    </row>
+    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A144" s="130"/>
+      <c r="B144" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C144" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D144" s="55"/>
+    </row>
+    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A145" s="130"/>
+      <c r="B145" s="98" t="s">
+        <v>215</v>
+      </c>
+      <c r="C145" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D145" s="55"/>
+    </row>
+    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A146" s="130"/>
+      <c r="B146" s="99" t="s">
+        <v>217</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D146" s="55"/>
+    </row>
+    <row r="147" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="130"/>
+      <c r="B147" s="98" t="s">
+        <v>219</v>
+      </c>
+      <c r="C147" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" s="55"/>
+    </row>
+    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A148" s="130"/>
+      <c r="B148" s="98" t="s">
+        <v>220</v>
+      </c>
+      <c r="C148" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="D148" s="55"/>
+    </row>
+    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A149" s="130"/>
+      <c r="B149" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="C149" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="D149" s="55"/>
+    </row>
+    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A150" s="130"/>
+      <c r="B150" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="C150" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="D150" s="55"/>
+    </row>
+    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A151" s="130"/>
+      <c r="B151" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C151" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="D151" s="55"/>
+    </row>
+    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A152" s="130"/>
+      <c r="B152" s="99" t="s">
+        <v>227</v>
+      </c>
+      <c r="C152" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="D152" s="55"/>
+    </row>
+    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A153" s="130"/>
+      <c r="B153" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="C153" s="34" t="s">
+        <v>230</v>
+      </c>
+      <c r="D153" s="55"/>
+    </row>
+    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A154" s="130"/>
+      <c r="B154" s="98" t="s">
+        <v>231</v>
+      </c>
+      <c r="C154" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="D154" s="55"/>
+    </row>
+    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A155" s="131" t="s">
+        <v>233</v>
+      </c>
+      <c r="B155" s="96"/>
+      <c r="C155" s="71"/>
+      <c r="D155" s="58"/>
+    </row>
+    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A156" s="130"/>
+      <c r="B156" s="100" t="s">
+        <v>234</v>
+      </c>
+      <c r="C156" s="141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" s="55"/>
+    </row>
+    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A157" s="130"/>
+      <c r="B157" s="98" t="s">
+        <v>235</v>
+      </c>
+      <c r="C157" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="D157" s="55"/>
+    </row>
+    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A158" s="130"/>
+      <c r="B158" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D158" s="55"/>
+    </row>
+    <row r="159" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A159" s="130"/>
+      <c r="B159" s="98" t="s">
+        <v>468</v>
+      </c>
+      <c r="C159" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D159" s="146"/>
+    </row>
+    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A160" s="130"/>
+      <c r="B160" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="C160" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="55"/>
+    </row>
+    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A161" s="130"/>
+      <c r="B161" s="99" t="s">
+        <v>240</v>
+      </c>
+      <c r="C161" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="D161" s="55"/>
+    </row>
+    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A162" s="130"/>
+      <c r="B162" s="99" t="s">
+        <v>242</v>
+      </c>
+      <c r="C162" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="56"/>
-    </row>
-    <row r="82" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="128"/>
-      <c r="B82" s="92" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="D82" s="56"/>
-    </row>
-    <row r="83" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A83" s="128"/>
-      <c r="B83" s="94" t="s">
-        <v>136</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>137</v>
-      </c>
-      <c r="D83" s="56"/>
-    </row>
-    <row r="84" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A84" s="128"/>
-      <c r="B84" s="94" t="s">
-        <v>138</v>
-      </c>
-      <c r="C84" s="70"/>
-      <c r="D84" s="56"/>
-    </row>
-    <row r="85" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="130" t="s">
-        <v>139</v>
-      </c>
-      <c r="B85" s="97"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="59"/>
-    </row>
-    <row r="86" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="130" t="s">
-        <v>140</v>
-      </c>
-      <c r="B86" s="97"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="59"/>
-    </row>
-    <row r="87" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="131"/>
-      <c r="B87" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="C87" s="34" t="s">
+      <c r="D162" s="55"/>
+    </row>
+    <row r="163" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A163" s="130"/>
+      <c r="B163" s="99" t="s">
+        <v>459</v>
+      </c>
+      <c r="C163" s="34" t="s">
+        <v>460</v>
+      </c>
+      <c r="D163" s="146"/>
+    </row>
+    <row r="164" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A164" s="130"/>
+      <c r="B164" s="99" t="s">
+        <v>243</v>
+      </c>
+      <c r="C164" s="71"/>
+      <c r="D164" s="55"/>
+    </row>
+    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A165" s="130"/>
+      <c r="B165" s="99" t="s">
+        <v>244</v>
+      </c>
+      <c r="C165" s="34" t="s">
+        <v>473</v>
+      </c>
+      <c r="D165" s="55"/>
+    </row>
+    <row r="166" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A166" s="130"/>
+      <c r="B166" s="99" t="s">
+        <v>472</v>
+      </c>
+      <c r="C166" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="D166" s="146"/>
+    </row>
+    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A167" s="130"/>
+      <c r="B167" s="99" t="s">
+        <v>245</v>
+      </c>
+      <c r="C167" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="D167" s="55"/>
+    </row>
+    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A168" s="130"/>
+      <c r="B168" s="99" t="s">
+        <v>247</v>
+      </c>
+      <c r="C168" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="D168" s="55"/>
+    </row>
+    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A169" s="130"/>
+      <c r="B169" s="99" t="s">
+        <v>249</v>
+      </c>
+      <c r="C169" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="D169" s="55"/>
+    </row>
+    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A170" s="130"/>
+      <c r="B170" s="99" t="s">
+        <v>250</v>
+      </c>
+      <c r="C170" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="D170" s="55"/>
+    </row>
+    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A171" s="130"/>
+      <c r="B171" s="99" t="s">
+        <v>252</v>
+      </c>
+      <c r="C171" s="34" t="s">
+        <v>253</v>
+      </c>
+      <c r="D171" s="55"/>
+    </row>
+    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A172" s="130"/>
+      <c r="B172" s="99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C172" s="34" t="s">
+        <v>255</v>
+      </c>
+      <c r="D172" s="55"/>
+    </row>
+    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A173" s="130"/>
+      <c r="B173" s="99" t="s">
+        <v>256</v>
+      </c>
+      <c r="C173" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="D173" s="55"/>
+    </row>
+    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A174" s="129" t="s">
+        <v>258</v>
+      </c>
+      <c r="B174" s="96"/>
+      <c r="C174" s="71"/>
+      <c r="D174" s="58"/>
+    </row>
+    <row r="175" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A175" s="130"/>
+      <c r="B175" s="99" t="s">
+        <v>259</v>
+      </c>
+      <c r="C175" s="71"/>
+      <c r="D175" s="55"/>
+    </row>
+    <row r="176" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A176" s="130"/>
+      <c r="B176" s="99" t="s">
+        <v>260</v>
+      </c>
+      <c r="C176" s="71"/>
+      <c r="D176" s="55"/>
+    </row>
+    <row r="177" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="130"/>
+      <c r="B177" s="99" t="s">
+        <v>261</v>
+      </c>
+      <c r="C177" s="71"/>
+      <c r="D177" s="55"/>
+    </row>
+    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A178" s="130"/>
+      <c r="B178" s="99" t="s">
+        <v>262</v>
+      </c>
+      <c r="C178" s="71"/>
+      <c r="D178" s="55"/>
+    </row>
+    <row r="179" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A179" s="130"/>
+      <c r="B179" s="99" t="s">
+        <v>263</v>
+      </c>
+      <c r="C179" s="34" t="s">
+        <v>470</v>
+      </c>
+      <c r="D179" s="146"/>
+    </row>
+    <row r="180" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A180" s="130"/>
+      <c r="B180" s="99" t="s">
+        <v>264</v>
+      </c>
+      <c r="C180" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="56"/>
-    </row>
-    <row r="88" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="131"/>
-      <c r="B88" s="99" t="s">
-        <v>142</v>
-      </c>
-      <c r="C88" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="D88" s="56"/>
-    </row>
-    <row r="89" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A89" s="131"/>
-      <c r="B89" s="100" t="s">
-        <v>144</v>
-      </c>
-      <c r="C89" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="D89" s="56"/>
-    </row>
-    <row r="90" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A90" s="131"/>
-      <c r="B90" s="100" t="s">
-        <v>146</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D90" s="56"/>
-    </row>
-    <row r="91" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="131"/>
-      <c r="B91" s="99" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="D91" s="56"/>
-    </row>
-    <row r="92" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A92" s="131"/>
-      <c r="B92" s="100" t="s">
-        <v>150</v>
-      </c>
-      <c r="C92" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="D92" s="56"/>
-    </row>
-    <row r="93" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="131"/>
-      <c r="B93" s="100" t="s">
-        <v>152</v>
-      </c>
-      <c r="C93" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="D93" s="56"/>
-    </row>
-    <row r="94" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="131"/>
-      <c r="B94" s="99" t="s">
-        <v>154</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D94" s="56"/>
-    </row>
-    <row r="95" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="131"/>
-      <c r="B95" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="D95" s="56"/>
-    </row>
-    <row r="96" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A96" s="131"/>
-      <c r="B96" s="99" t="s">
-        <v>158</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="D96" s="56"/>
-    </row>
-    <row r="97" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="131"/>
-      <c r="B97" s="100" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D97" s="56"/>
-    </row>
-    <row r="98" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="131"/>
-      <c r="B98" s="98" t="s">
-        <v>162</v>
-      </c>
-      <c r="C98" s="34" t="s">
+      <c r="D180" s="55"/>
+    </row>
+    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A181" s="130"/>
+      <c r="B181" s="99" t="s">
+        <v>265</v>
+      </c>
+      <c r="C181" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D181" s="55"/>
+    </row>
+    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A182" s="130"/>
+      <c r="B182" s="99" t="s">
+        <v>267</v>
+      </c>
+      <c r="C182" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D182" s="55"/>
+    </row>
+    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A183" s="130"/>
+      <c r="B183" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="C183" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="56"/>
-    </row>
-    <row r="99" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A99" s="131"/>
-      <c r="B99" s="100" t="s">
-        <v>163</v>
-      </c>
-      <c r="C99" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="D99" s="56"/>
-    </row>
-    <row r="100" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="131"/>
-      <c r="B100" s="100" t="s">
-        <v>165</v>
-      </c>
-      <c r="C100" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="D100" s="56"/>
-    </row>
-    <row r="101" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A101" s="131"/>
-      <c r="B101" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="C101" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="D101" s="56"/>
-    </row>
-    <row r="102" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="131"/>
-      <c r="B102" s="101" t="s">
-        <v>169</v>
-      </c>
-      <c r="C102" s="34" t="s">
+      <c r="D183" s="55"/>
+    </row>
+    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A184" s="132" t="s">
+        <v>269</v>
+      </c>
+      <c r="B184" s="102"/>
+      <c r="C184" s="73"/>
+      <c r="D184" s="59"/>
+    </row>
+    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A185" s="133"/>
+      <c r="B185" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="C185" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="D185" s="55"/>
+    </row>
+    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A186" s="133"/>
+      <c r="B186" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="C186" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="D186" s="55"/>
+    </row>
+    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A187" s="133"/>
+      <c r="B187" s="103" t="s">
+        <v>274</v>
+      </c>
+      <c r="C187" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="D187" s="55"/>
+    </row>
+    <row r="188" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A188" s="133"/>
+      <c r="B188" s="156" t="s">
+        <v>276</v>
+      </c>
+      <c r="C188" s="157" t="s">
+        <v>277</v>
+      </c>
+      <c r="D188" s="55"/>
+    </row>
+    <row r="189" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A189" s="133"/>
+      <c r="B189" s="103" t="s">
+        <v>278</v>
+      </c>
+      <c r="C189" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="D189" s="55"/>
+    </row>
+    <row r="190" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A190" s="133"/>
+      <c r="B190" s="103" t="s">
+        <v>280</v>
+      </c>
+      <c r="C190" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="D190" s="55"/>
+    </row>
+    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A191" s="133"/>
+      <c r="B191" s="104" t="s">
+        <v>282</v>
+      </c>
+      <c r="C191" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="D191" s="55"/>
+    </row>
+    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A192" s="134" t="s">
+        <v>284</v>
+      </c>
+      <c r="B192" s="105"/>
+      <c r="C192" s="74"/>
+      <c r="D192" s="60"/>
+    </row>
+    <row r="193" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A193" s="135" t="s">
+        <v>285</v>
+      </c>
+      <c r="B193" s="106" t="s">
+        <v>286</v>
+      </c>
+      <c r="C193" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="D193" s="55"/>
+    </row>
+    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A194" s="136"/>
+      <c r="B194" s="106" t="s">
+        <v>288</v>
+      </c>
+      <c r="C194" s="39" t="s">
+        <v>289</v>
+      </c>
+      <c r="D194" s="55"/>
+    </row>
+    <row r="195" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A195" s="136"/>
+      <c r="B195" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="C195" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="D195" s="55"/>
+    </row>
+    <row r="196" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A196" s="136"/>
+      <c r="B196" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="C196" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="D196" s="55"/>
+    </row>
+    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A197" s="136"/>
+      <c r="B197" s="106" t="s">
+        <v>294</v>
+      </c>
+      <c r="C197" s="39" t="s">
+        <v>295</v>
+      </c>
+      <c r="D197" s="55"/>
+    </row>
+    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A198" s="136"/>
+      <c r="B198" s="106" t="s">
+        <v>296</v>
+      </c>
+      <c r="C198" s="39" t="s">
+        <v>297</v>
+      </c>
+      <c r="D198" s="55"/>
+    </row>
+    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A199" s="136"/>
+      <c r="B199" s="106" t="s">
+        <v>298</v>
+      </c>
+      <c r="C199" s="39" t="s">
+        <v>299</v>
+      </c>
+      <c r="D199" s="55"/>
+    </row>
+    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A200" s="136"/>
+      <c r="B200" s="106" t="s">
+        <v>300</v>
+      </c>
+      <c r="C200" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="D200" s="55"/>
+    </row>
+    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A201" s="136"/>
+      <c r="B201" s="106" t="s">
+        <v>301</v>
+      </c>
+      <c r="C201" s="39" t="s">
+        <v>487</v>
+      </c>
+      <c r="D201" s="55"/>
+    </row>
+    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A202" s="136"/>
+      <c r="B202" s="106" t="s">
+        <v>302</v>
+      </c>
+      <c r="C202" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="D202" s="55"/>
+    </row>
+    <row r="203" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A203" s="136"/>
+      <c r="B203" s="106" t="s">
+        <v>304</v>
+      </c>
+      <c r="C203" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="D203" s="55"/>
+    </row>
+    <row r="204" spans="1:4" s="147" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="136"/>
+      <c r="B204" s="150" t="s">
+        <v>494</v>
+      </c>
+      <c r="C204" s="151" t="s">
+        <v>495</v>
+      </c>
+      <c r="D204" s="146"/>
+    </row>
+    <row r="205" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A205" s="136"/>
+      <c r="B205" s="152" t="s">
+        <v>305</v>
+      </c>
+      <c r="C205" s="74"/>
+      <c r="D205" s="146"/>
+    </row>
+    <row r="206" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A206" s="136"/>
+      <c r="B206" s="106" t="s">
+        <v>306</v>
+      </c>
+      <c r="C206" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D102" s="56"/>
-    </row>
-    <row r="103" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="131"/>
-      <c r="B103" s="100" t="s">
-        <v>170</v>
-      </c>
-      <c r="C103" s="35" t="s">
-        <v>171</v>
-      </c>
-      <c r="D103" s="56"/>
-    </row>
-    <row r="104" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="131"/>
-      <c r="B104" s="100" t="s">
-        <v>172</v>
-      </c>
-      <c r="C104" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="D104" s="56"/>
-    </row>
-    <row r="105" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="131"/>
-      <c r="B105" s="99" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D105" s="56"/>
-    </row>
-    <row r="106" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="131"/>
-      <c r="B106" s="101" t="s">
-        <v>176</v>
-      </c>
-      <c r="C106" s="34" t="s">
+      <c r="D206" s="146"/>
+    </row>
+    <row r="207" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A207" s="136"/>
+      <c r="B207" s="152" t="s">
+        <v>488</v>
+      </c>
+      <c r="C207" s="153" t="s">
+        <v>489</v>
+      </c>
+      <c r="D207" s="146"/>
+    </row>
+    <row r="208" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A208" s="136"/>
+      <c r="B208" s="106" t="s">
+        <v>492</v>
+      </c>
+      <c r="C208" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="56"/>
-    </row>
-    <row r="107" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="131"/>
-      <c r="B107" s="100" t="s">
-        <v>177</v>
-      </c>
-      <c r="C107" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="56"/>
-    </row>
-    <row r="108" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A108" s="131"/>
-      <c r="B108" s="99" t="s">
-        <v>179</v>
-      </c>
-      <c r="C108" s="72"/>
-      <c r="D108" s="56"/>
-    </row>
-    <row r="109" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="131"/>
-      <c r="B109" s="99" t="s">
-        <v>180</v>
-      </c>
-      <c r="C109" s="72"/>
-      <c r="D109" s="56"/>
-    </row>
-    <row r="110" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="131"/>
-      <c r="B110" s="99" t="s">
-        <v>181</v>
-      </c>
-      <c r="C110" s="72"/>
-      <c r="D110" s="56"/>
-    </row>
-    <row r="111" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="131"/>
-      <c r="B111" s="99" t="s">
-        <v>182</v>
-      </c>
-      <c r="C111" s="72"/>
-      <c r="D111" s="56"/>
-    </row>
-    <row r="112" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="131"/>
-      <c r="B112" s="101" t="s">
-        <v>183</v>
-      </c>
-      <c r="C112" s="34" t="s">
+      <c r="D208" s="146"/>
+    </row>
+    <row r="209" spans="1:4" s="147" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A209" s="136"/>
+      <c r="B209" s="152" t="s">
+        <v>491</v>
+      </c>
+      <c r="C209" s="153" t="s">
+        <v>490</v>
+      </c>
+      <c r="D209" s="146"/>
+    </row>
+    <row r="210" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A210" s="136"/>
+      <c r="B210" s="106" t="s">
+        <v>307</v>
+      </c>
+      <c r="C210" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="56"/>
-    </row>
-    <row r="113" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A113" s="131"/>
-      <c r="B113" s="99" t="s">
-        <v>184</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="D113" s="56"/>
-    </row>
-    <row r="114" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="131"/>
-      <c r="B114" s="100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C114" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" s="56"/>
-    </row>
-    <row r="115" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="131"/>
-      <c r="B115" s="100" t="s">
-        <v>188</v>
-      </c>
-      <c r="C115" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="D115" s="56"/>
-    </row>
-    <row r="116" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="131"/>
-      <c r="B116" s="102" t="s">
-        <v>190</v>
-      </c>
-      <c r="C116" s="141" t="s">
-        <v>16</v>
-      </c>
-      <c r="D116" s="56"/>
-    </row>
-    <row r="117" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="131"/>
-      <c r="B117" s="99" t="s">
-        <v>191</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="D117" s="56"/>
-    </row>
-    <row r="118" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="131"/>
-      <c r="B118" s="100" t="s">
-        <v>193</v>
-      </c>
-      <c r="C118" s="35" t="s">
-        <v>194</v>
-      </c>
-      <c r="D118" s="56"/>
-    </row>
-    <row r="119" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="131"/>
-      <c r="B119" s="99" t="s">
-        <v>195</v>
-      </c>
-      <c r="C119" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="D119" s="56"/>
-    </row>
-    <row r="120" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="131"/>
-      <c r="B120" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="C120" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="D120" s="56"/>
-    </row>
-    <row r="121" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="131"/>
-      <c r="B121" s="100" t="s">
-        <v>199</v>
-      </c>
-      <c r="C121" s="34" t="s">
-        <v>200</v>
-      </c>
-      <c r="D121" s="56"/>
-    </row>
-    <row r="122" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="131"/>
-      <c r="B122" s="97"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="59"/>
-    </row>
-    <row r="123" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="131"/>
-      <c r="B123" s="101" t="s">
-        <v>201</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D123" s="56"/>
-    </row>
-    <row r="124" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="131"/>
-      <c r="B124" s="99" t="s">
-        <v>202</v>
-      </c>
-      <c r="C124" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D124" s="56"/>
-    </row>
-    <row r="125" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="131"/>
-      <c r="B125" s="97"/>
-      <c r="C125" s="72"/>
-      <c r="D125" s="59"/>
-    </row>
-    <row r="126" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A126" s="131"/>
-      <c r="B126" s="101" t="s">
-        <v>204</v>
-      </c>
-      <c r="C126" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D126" s="56"/>
-    </row>
-    <row r="127" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="131"/>
-      <c r="B127" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="D127" s="56"/>
-    </row>
-    <row r="128" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A128" s="131"/>
-      <c r="B128" s="99" t="s">
-        <v>207</v>
-      </c>
-      <c r="C128" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="D128" s="56"/>
-    </row>
-    <row r="129" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="131"/>
-      <c r="B129" s="100" t="s">
-        <v>209</v>
-      </c>
-      <c r="C129" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D129" s="56"/>
-    </row>
-    <row r="130" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="131"/>
-      <c r="B130" s="100" t="s">
-        <v>211</v>
-      </c>
-      <c r="C130" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D130" s="56"/>
-    </row>
-    <row r="131" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="131"/>
-      <c r="B131" s="100" t="s">
-        <v>213</v>
-      </c>
-      <c r="C131" s="72"/>
-      <c r="D131" s="56"/>
-    </row>
-    <row r="132" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="131"/>
-      <c r="B132" s="100" t="s">
-        <v>214</v>
-      </c>
-      <c r="C132" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="D132" s="56"/>
-    </row>
-    <row r="133" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="131"/>
-      <c r="B133" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="C133" s="142" t="s">
-        <v>16</v>
-      </c>
-      <c r="D133" s="56"/>
-    </row>
-    <row r="134" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="131"/>
-      <c r="B134" s="99" t="s">
-        <v>217</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="D134" s="56"/>
-    </row>
-    <row r="135" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="131"/>
-      <c r="B135" s="99" t="s">
-        <v>219</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="D135" s="56"/>
-    </row>
-    <row r="136" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="131"/>
-      <c r="B136" s="100" t="s">
-        <v>221</v>
-      </c>
-      <c r="C136" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="D136" s="56"/>
-    </row>
-    <row r="137" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A137" s="131"/>
-      <c r="B137" s="99" t="s">
-        <v>223</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="D137" s="56"/>
-    </row>
-    <row r="138" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A138" s="131"/>
-      <c r="B138" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="C138" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="D138" s="56"/>
-    </row>
-    <row r="139" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="131"/>
-      <c r="B139" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C139" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="D139" s="56"/>
-    </row>
-    <row r="140" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="131"/>
-      <c r="B140" s="99" t="s">
-        <v>197</v>
-      </c>
-      <c r="C140" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="D140" s="56"/>
-    </row>
-    <row r="141" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="131"/>
-      <c r="B141" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="C141" s="34" t="s">
-        <v>230</v>
-      </c>
-      <c r="D141" s="56"/>
-    </row>
-    <row r="142" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="131"/>
-      <c r="B142" s="100" t="s">
-        <v>231</v>
-      </c>
-      <c r="C142" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="D142" s="56"/>
-    </row>
-    <row r="143" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A143" s="131"/>
-      <c r="B143" s="100" t="s">
-        <v>233</v>
-      </c>
-      <c r="C143" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="D143" s="56"/>
-    </row>
-    <row r="144" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="131"/>
-      <c r="B144" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="C144" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="D144" s="56"/>
-    </row>
-    <row r="145" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="132" t="s">
-        <v>237</v>
-      </c>
-      <c r="B145" s="97"/>
-      <c r="C145" s="72"/>
-      <c r="D145" s="59"/>
-    </row>
-    <row r="146" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="131"/>
-      <c r="B146" s="101" t="s">
-        <v>238</v>
-      </c>
-      <c r="C146" s="142" t="s">
-        <v>16</v>
-      </c>
-      <c r="D146" s="56"/>
-    </row>
-    <row r="147" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="131"/>
-      <c r="B147" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="D147" s="56"/>
-    </row>
-    <row r="148" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="131"/>
-      <c r="B148" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="C148" s="34" t="s">
-        <v>242</v>
-      </c>
-      <c r="D148" s="56"/>
-    </row>
-    <row r="149" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="131"/>
-      <c r="B149" s="100" t="s">
-        <v>243</v>
-      </c>
-      <c r="C149" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D149" s="56"/>
-    </row>
-    <row r="150" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A150" s="131"/>
-      <c r="B150" s="100" t="s">
-        <v>244</v>
-      </c>
-      <c r="C150" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="D150" s="56"/>
-    </row>
-    <row r="151" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="131"/>
-      <c r="B151" s="100" t="s">
-        <v>246</v>
-      </c>
-      <c r="C151" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="D151" s="56"/>
-    </row>
-    <row r="152" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A152" s="131"/>
-      <c r="B152" s="100" t="s">
-        <v>247</v>
-      </c>
-      <c r="C152" s="72"/>
-      <c r="D152" s="56"/>
-    </row>
-    <row r="153" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="131"/>
-      <c r="B153" s="100" t="s">
-        <v>248</v>
-      </c>
-      <c r="C153" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="D153" s="56"/>
-    </row>
-    <row r="154" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A154" s="131"/>
-      <c r="B154" s="100" t="s">
-        <v>250</v>
-      </c>
-      <c r="C154" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="D154" s="56"/>
-    </row>
-    <row r="155" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A155" s="131"/>
-      <c r="B155" s="100" t="s">
-        <v>252</v>
-      </c>
-      <c r="C155" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="D155" s="56"/>
-    </row>
-    <row r="156" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A156" s="131"/>
-      <c r="B156" s="100" t="s">
-        <v>254</v>
-      </c>
-      <c r="C156" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="D156" s="56"/>
-    </row>
-    <row r="157" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="131"/>
-      <c r="B157" s="100" t="s">
-        <v>255</v>
-      </c>
-      <c r="C157" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="D157" s="56"/>
-    </row>
-    <row r="158" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="131"/>
-      <c r="B158" s="100" t="s">
-        <v>257</v>
-      </c>
-      <c r="C158" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="D158" s="56"/>
-    </row>
-    <row r="159" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="131"/>
-      <c r="B159" s="100" t="s">
-        <v>259</v>
-      </c>
-      <c r="C159" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="D159" s="56"/>
-    </row>
-    <row r="160" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="131"/>
-      <c r="B160" s="100" t="s">
-        <v>261</v>
-      </c>
-      <c r="C160" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="D160" s="56"/>
-    </row>
-    <row r="161" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="130" t="s">
-        <v>263</v>
-      </c>
-      <c r="B161" s="97"/>
-      <c r="C161" s="72"/>
-      <c r="D161" s="59"/>
-    </row>
-    <row r="162" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="131"/>
-      <c r="B162" s="100" t="s">
-        <v>264</v>
-      </c>
-      <c r="C162" s="72"/>
-      <c r="D162" s="56"/>
-    </row>
-    <row r="163" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="131"/>
-      <c r="B163" s="100" t="s">
-        <v>265</v>
-      </c>
-      <c r="C163" s="72"/>
-      <c r="D163" s="56"/>
-    </row>
-    <row r="164" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A164" s="131"/>
-      <c r="B164" s="100" t="s">
-        <v>266</v>
-      </c>
-      <c r="C164" s="72"/>
-      <c r="D164" s="56"/>
-    </row>
-    <row r="165" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="131"/>
-      <c r="B165" s="100" t="s">
-        <v>267</v>
-      </c>
-      <c r="C165" s="72"/>
-      <c r="D165" s="56"/>
-    </row>
-    <row r="166" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="131"/>
-      <c r="B166" s="100" t="s">
-        <v>268</v>
-      </c>
-      <c r="C166" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="D166" s="56"/>
-    </row>
-    <row r="167" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="131"/>
-      <c r="B167" s="100" t="s">
-        <v>270</v>
-      </c>
-      <c r="C167" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D167" s="56"/>
-    </row>
-    <row r="168" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="131"/>
-      <c r="B168" s="100" t="s">
-        <v>271</v>
-      </c>
-      <c r="C168" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D168" s="56"/>
-    </row>
-    <row r="169" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="131"/>
-      <c r="B169" s="100" t="s">
-        <v>273</v>
-      </c>
-      <c r="C169" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="D169" s="56"/>
-    </row>
-    <row r="170" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="131"/>
-      <c r="B170" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="C170" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D170" s="56"/>
-    </row>
-    <row r="171" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A171" s="133" t="s">
-        <v>275</v>
-      </c>
-      <c r="B171" s="103"/>
-      <c r="C171" s="74"/>
-      <c r="D171" s="60"/>
-    </row>
-    <row r="172" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A172" s="134"/>
-      <c r="B172" s="104" t="s">
-        <v>276</v>
-      </c>
-      <c r="C172" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="D172" s="56"/>
-    </row>
-    <row r="173" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="134"/>
-      <c r="B173" s="104" t="s">
-        <v>278</v>
-      </c>
-      <c r="C173" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="D173" s="56"/>
-    </row>
-    <row r="174" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="134"/>
-      <c r="B174" s="104" t="s">
-        <v>280</v>
-      </c>
-      <c r="C174" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="D174" s="56"/>
-    </row>
-    <row r="175" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="134"/>
-      <c r="B175" s="105" t="s">
-        <v>282</v>
-      </c>
-      <c r="C175" s="38" t="s">
-        <v>283</v>
-      </c>
-      <c r="D175" s="56"/>
-    </row>
-    <row r="176" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A176" s="134"/>
-      <c r="B176" s="104" t="s">
-        <v>284</v>
-      </c>
-      <c r="C176" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="D176" s="56"/>
-    </row>
-    <row r="177" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="134"/>
-      <c r="B177" s="104" t="s">
-        <v>286</v>
-      </c>
-      <c r="C177" s="39" t="s">
-        <v>287</v>
-      </c>
-      <c r="D177" s="56"/>
-    </row>
-    <row r="178" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A178" s="134"/>
-      <c r="B178" s="105" t="s">
-        <v>288</v>
-      </c>
-      <c r="C178" s="38" t="s">
-        <v>289</v>
-      </c>
-      <c r="D178" s="56"/>
-    </row>
-    <row r="179" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A179" s="135" t="s">
-        <v>290</v>
-      </c>
-      <c r="B179" s="106"/>
-      <c r="C179" s="75"/>
-      <c r="D179" s="61"/>
-    </row>
-    <row r="180" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="136" t="s">
-        <v>291</v>
-      </c>
-      <c r="B180" s="107" t="s">
-        <v>292</v>
-      </c>
-      <c r="C180" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="D180" s="56"/>
-    </row>
-    <row r="181" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A181" s="137"/>
-      <c r="B181" s="107" t="s">
-        <v>294</v>
-      </c>
-      <c r="C181" s="40" t="s">
-        <v>295</v>
-      </c>
-      <c r="D181" s="56"/>
-    </row>
-    <row r="182" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A182" s="137"/>
-      <c r="B182" s="107" t="s">
-        <v>296</v>
-      </c>
-      <c r="C182" s="40" t="s">
-        <v>297</v>
-      </c>
-      <c r="D182" s="56"/>
-    </row>
-    <row r="183" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A183" s="137"/>
-      <c r="B183" s="107" t="s">
-        <v>298</v>
-      </c>
-      <c r="C183" s="40" t="s">
-        <v>299</v>
-      </c>
-      <c r="D183" s="56"/>
-    </row>
-    <row r="184" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A184" s="137"/>
-      <c r="B184" s="107" t="s">
-        <v>300</v>
-      </c>
-      <c r="C184" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="D184" s="56"/>
-    </row>
-    <row r="185" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A185" s="137"/>
-      <c r="B185" s="107" t="s">
-        <v>302</v>
-      </c>
-      <c r="C185" s="40" t="s">
-        <v>303</v>
-      </c>
-      <c r="D185" s="56"/>
-    </row>
-    <row r="186" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="137"/>
-      <c r="B186" s="107" t="s">
-        <v>304</v>
-      </c>
-      <c r="C186" s="40" t="s">
-        <v>305</v>
-      </c>
-      <c r="D186" s="56"/>
-    </row>
-    <row r="187" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" s="137"/>
-      <c r="B187" s="107" t="s">
-        <v>306</v>
-      </c>
-      <c r="C187" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="D187" s="56"/>
-    </row>
-    <row r="188" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A188" s="137"/>
-      <c r="B188" s="107" t="s">
+      <c r="D210" s="55"/>
+    </row>
+    <row r="211" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A211" s="136"/>
+      <c r="B211" s="107" t="s">
         <v>308</v>
       </c>
-      <c r="C188" s="40" t="s">
+      <c r="C211" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="D188" s="56"/>
-    </row>
-    <row r="189" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="137"/>
-      <c r="B189" s="107" t="s">
+      <c r="D211" s="55"/>
+    </row>
+    <row r="212" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A212" s="136"/>
+      <c r="B212" s="107" t="s">
         <v>310</v>
       </c>
-      <c r="C189" s="40" t="s">
+      <c r="C212" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="D189" s="56"/>
-    </row>
-    <row r="190" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A190" s="137"/>
-      <c r="B190" s="107" t="s">
+      <c r="D212" s="55"/>
+    </row>
+    <row r="213" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A213" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="C190" s="40" t="s">
+      <c r="B213" s="108"/>
+      <c r="C213" s="75"/>
+      <c r="D213" s="61"/>
+    </row>
+    <row r="214" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A214" s="138"/>
+      <c r="B214" s="109" t="s">
         <v>313</v>
       </c>
-      <c r="D190" s="56"/>
-    </row>
-    <row r="191" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="137"/>
-      <c r="B191" s="107" t="s">
+      <c r="C214" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="C191" s="75"/>
-      <c r="D191" s="56"/>
-    </row>
-    <row r="192" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A192" s="137"/>
-      <c r="B192" s="107" t="s">
+      <c r="D214" s="55"/>
+    </row>
+    <row r="215" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A215" s="138"/>
+      <c r="B215" s="109" t="s">
         <v>315</v>
       </c>
-      <c r="C192" s="75"/>
-      <c r="D192" s="56"/>
-    </row>
-    <row r="193" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A193" s="137"/>
-      <c r="B193" s="107" t="s">
+      <c r="C215" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="C193" s="75"/>
-      <c r="D193" s="56"/>
-    </row>
-    <row r="194" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A194" s="137"/>
-      <c r="B194" s="107" t="s">
+      <c r="D215" s="55"/>
+    </row>
+    <row r="216" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A216" s="138"/>
+      <c r="B216" s="109" t="s">
         <v>317</v>
       </c>
-      <c r="C194" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D194" s="56"/>
-    </row>
-    <row r="195" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="137"/>
-      <c r="B195" s="108" t="s">
+      <c r="C216" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="C195" s="41" t="s">
+      <c r="D216" s="55"/>
+    </row>
+    <row r="217" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A217" s="138"/>
+      <c r="B217" s="110" t="s">
         <v>319</v>
       </c>
-      <c r="D195" s="56"/>
-    </row>
-    <row r="196" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A196" s="137"/>
-      <c r="B196" s="108" t="s">
+      <c r="C217" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="C196" s="41" t="s">
+      <c r="D217" s="55"/>
+    </row>
+    <row r="218" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A218" s="138"/>
+      <c r="B218" s="110" t="s">
         <v>321</v>
       </c>
-      <c r="D196" s="56"/>
-    </row>
-    <row r="197" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A197" s="138" t="s">
+      <c r="C218" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="B197" s="109"/>
-      <c r="C197" s="76"/>
-      <c r="D197" s="62"/>
-    </row>
-    <row r="198" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A198" s="139"/>
-      <c r="B198" s="110" t="s">
+      <c r="D218" s="55"/>
+    </row>
+    <row r="219" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A219" s="139" t="s">
         <v>323</v>
       </c>
-      <c r="C198" s="42" t="s">
+      <c r="B219" s="111"/>
+      <c r="C219" s="67"/>
+      <c r="D219" s="54"/>
+    </row>
+    <row r="220" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A220" s="119"/>
+      <c r="B220" s="112" t="s">
         <v>324</v>
       </c>
-      <c r="D198" s="56"/>
-    </row>
-    <row r="199" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A199" s="139"/>
-      <c r="B199" s="110" t="s">
+      <c r="C220" s="42" t="s">
         <v>325</v>
       </c>
-      <c r="C199" s="42" t="s">
+      <c r="D220" s="55"/>
+    </row>
+    <row r="221" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A221" s="119"/>
+      <c r="B221" s="80" t="s">
         <v>326</v>
       </c>
-      <c r="D199" s="56"/>
-    </row>
-    <row r="200" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A200" s="139"/>
-      <c r="B200" s="110" t="s">
+      <c r="C221" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="C200" s="42" t="s">
+      <c r="D221" s="55"/>
+    </row>
+    <row r="222" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A222" s="119"/>
+      <c r="B222" s="113" t="s">
         <v>328</v>
       </c>
-      <c r="D200" s="56"/>
-    </row>
-    <row r="201" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A201" s="139"/>
-      <c r="B201" s="111" t="s">
+      <c r="C222" s="42" t="s">
         <v>329</v>
       </c>
-      <c r="C201" s="42" t="s">
+      <c r="D222" s="55"/>
+    </row>
+    <row r="223" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A223" s="119"/>
+      <c r="B223" s="114" t="s">
         <v>330</v>
       </c>
-      <c r="D201" s="56"/>
-    </row>
-    <row r="202" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A202" s="139"/>
-      <c r="B202" s="111" t="s">
-        <v>331</v>
-      </c>
-      <c r="C202" s="42" t="s">
-        <v>332</v>
-      </c>
-      <c r="D202" s="56"/>
-    </row>
-    <row r="203" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A203" s="140" t="s">
-        <v>333</v>
-      </c>
-      <c r="B203" s="112"/>
-      <c r="C203" s="68"/>
-      <c r="D203" s="55"/>
-    </row>
-    <row r="204" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A204" s="120"/>
-      <c r="B204" s="113" t="s">
-        <v>334</v>
-      </c>
-      <c r="C204" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="D204" s="56"/>
-    </row>
-    <row r="205" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A205" s="120"/>
-      <c r="B205" s="81" t="s">
-        <v>336</v>
-      </c>
-      <c r="C205" s="26" t="s">
-        <v>337</v>
-      </c>
-      <c r="D205" s="56"/>
-    </row>
-    <row r="206" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A206" s="120"/>
-      <c r="B206" s="114" t="s">
-        <v>338</v>
-      </c>
-      <c r="C206" s="43" t="s">
-        <v>339</v>
-      </c>
-      <c r="D206" s="56"/>
-    </row>
-    <row r="207" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A207" s="120"/>
-      <c r="B207" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="C207" s="68"/>
-      <c r="D207" s="56"/>
+      <c r="C223" s="67"/>
+      <c r="D223" s="55"/>
     </row>
   </sheetData>
-  <sheetProtection password="C47A" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection password="C47A" sheet="1" selectLockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1"/>
+    <hyperlink ref="C43" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -5113,11 +5440,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
+      <c r="A3" s="46"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="48" t="s">
-        <v>466</v>
+      <c r="A36" s="47" t="s">
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -5146,94 +5473,94 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="22" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -5241,338 +5568,338 @@
     <row r="11" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>429</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>430</v>
+      <c r="A33" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="143" t="s">
-        <v>465</v>
+      <c r="A45" s="142" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
